--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3202.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3202.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9208293660438442</v>
+        <v>1.508609294891357</v>
       </c>
       <c r="B1">
-        <v>1.667898365095653</v>
+        <v>2.131599903106689</v>
       </c>
       <c r="C1">
-        <v>5.835930513854417</v>
+        <v>2.537649154663086</v>
       </c>
       <c r="D1">
-        <v>4.366158498970167</v>
+        <v>3.030050992965698</v>
       </c>
       <c r="E1">
-        <v>1.763889529634153</v>
+        <v>2.32846474647522</v>
       </c>
     </row>
   </sheetData>
